--- a/music.xlsx
+++ b/music.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8097CF7B-179C-43C4-BE1B-B586418410F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA72775-71B5-4162-ACF5-3E6783BA50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Đừng Hỏi Em </t>
   </si>
@@ -120,10 +120,46 @@
     <t>Hơn cả yêu</t>
   </si>
   <si>
-    <t>Đừng yêu nữa em mệt rồi</t>
-  </si>
-  <si>
     <t>Hết thương cạn nhớ</t>
+  </si>
+  <si>
+    <t>Bản tình ca không tựa</t>
+  </si>
+  <si>
+    <t>Ánh trăng nói hộ lòng tôi</t>
+  </si>
+  <si>
+    <t>Em đừng đi</t>
+  </si>
+  <si>
+    <t>Bất quá nhân gian</t>
+  </si>
+  <si>
+    <t>Áo hoa</t>
+  </si>
+  <si>
+    <t>Như em đã thấy em</t>
+  </si>
+  <si>
+    <t>Đừng yêu nữa, em mệt rồi</t>
+  </si>
+  <si>
+    <t>Tát nước đầu đình - Linh Lee</t>
+  </si>
+  <si>
+    <t>Cưới em về a còn yêu e không</t>
+  </si>
+  <si>
+    <t>Để tôi ôm e bằng giai điệu này</t>
+  </si>
+  <si>
+    <t>Body Shaming</t>
+  </si>
+  <si>
+    <t>Mùa xuân đầu tiên</t>
+  </si>
+  <si>
+    <t>Ai rồi cũng sẽ khác</t>
   </si>
 </sst>
 </file>
@@ -441,33 +477,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="2.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="10" width="2.33203125" customWidth="1"/>
     <col min="11" max="11" width="4.88671875" customWidth="1"/>
     <col min="12" max="12" width="6.21875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="2.5546875" customWidth="1"/>
     <col min="16" max="16" width="6.21875" customWidth="1"/>
     <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.77734375" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" customWidth="1"/>
     <col min="21" max="21" width="2.88671875" customWidth="1"/>
     <col min="22" max="22" width="6.88671875" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
@@ -544,8 +580,17 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
       <c r="H2" t="s">
         <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
@@ -558,6 +603,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -565,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
         <v>24</v>
@@ -575,13 +623,41 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA72775-71B5-4162-ACF5-3E6783BA50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E9C26-9064-4999-8F85-6D34A746B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Đừng Hỏi Em </t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Ai rồi cũng sẽ khác</t>
+  </si>
+  <si>
+    <t>Hẹn e kiếp sau - Hương tú</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +635,9 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
       <c r="T4" t="s">
         <v>39</v>
       </c>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E9C26-9064-4999-8F85-6D34A746B8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0730B-7916-4EB3-8EEB-69A67150BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Đừng Hỏi Em </t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Hẹn e kiếp sau - Hương tú</t>
+  </si>
+  <si>
+    <t>Mùa thu cho e - Trinh</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +621,9 @@
       <c r="H3" t="s">
         <v>31</v>
       </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
       <c r="T3" t="s">
         <v>24</v>
       </c>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0730B-7916-4EB3-8EEB-69A67150BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C863F-4156-4BEC-B3C1-F64B716113BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Đừng Hỏi Em </t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Mùa thu cho e - Trinh</t>
+  </si>
+  <si>
+    <t>Mùa xuân không còn nữa</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +647,9 @@
       <c r="H4" t="s">
         <v>45</v>
       </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
       <c r="T4" t="s">
         <v>39</v>
       </c>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C863F-4156-4BEC-B3C1-F64B716113BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E470B5-6545-4123-83D4-5C542BBFE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,41 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Đừng Hỏi Em </t>
-  </si>
-  <si>
-    <t>Mình Yêu Nhau Đi</t>
-  </si>
-  <si>
-    <t>Yêu Lại Từ Đầu</t>
-  </si>
-  <si>
-    <t>Bao Giờ Lấy Chồng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Bài này không để đi diễn</t>
   </si>
   <si>
-    <t>Cánh Hồng Phai</t>
-  </si>
-  <si>
-    <t>Anh Muốn Em Sống Sao</t>
-  </si>
-  <si>
-    <t>Anh Cứ Đi Đi</t>
-  </si>
-  <si>
-    <t>Để Nhớ Một Thời Ta Đã Yêu</t>
-  </si>
-  <si>
-    <t>Để Cho Em Khóc</t>
-  </si>
-  <si>
-    <t>Chỉ Bằng Cái Gật Đầu</t>
-  </si>
-  <si>
     <t>Qua đêm nay</t>
   </si>
   <si>
@@ -93,9 +63,6 @@
     <t>Vào hạ</t>
   </si>
   <si>
-    <t>Yêu Một Người Vô Tâm</t>
-  </si>
-  <si>
     <t>Anh là của em</t>
   </si>
   <si>
@@ -108,9 +75,6 @@
     <t>Hoa nở không màu</t>
   </si>
   <si>
-    <t>Ai Chung Tình Được Mãi</t>
-  </si>
-  <si>
     <t>Khóc</t>
   </si>
   <si>
@@ -153,9 +117,6 @@
     <t>Để tôi ôm e bằng giai điệu này</t>
   </si>
   <si>
-    <t>Body Shaming</t>
-  </si>
-  <si>
     <t>Mùa xuân đầu tiên</t>
   </si>
   <si>
@@ -169,6 +130,84 @@
   </si>
   <si>
     <t>Mùa xuân không còn nữa</t>
+  </si>
+  <si>
+    <t>Bến thượng hải</t>
+  </si>
+  <si>
+    <t>Người tình ơi! Mơ gì</t>
+  </si>
+  <si>
+    <t>Biệt tri kỷ</t>
+  </si>
+  <si>
+    <t>On my way</t>
+  </si>
+  <si>
+    <t>Sing me to sleep</t>
+  </si>
+  <si>
+    <t>That girl</t>
+  </si>
+  <si>
+    <t>Beautiful in white</t>
+  </si>
+  <si>
+    <t>Hình như ta thích nhau</t>
+  </si>
+  <si>
+    <t>Nụ cười 18 20</t>
+  </si>
+  <si>
+    <t>Ánh nắng của anh</t>
+  </si>
+  <si>
+    <t>Xin người chớ đừng</t>
+  </si>
+  <si>
+    <t>Thần thoại</t>
+  </si>
+  <si>
+    <t>Nếu em đi</t>
+  </si>
+  <si>
+    <t>Để nhớ một thời ta đã yêu</t>
+  </si>
+  <si>
+    <t>Để cho em khóc</t>
+  </si>
+  <si>
+    <t>Anh muốn em sống sao</t>
+  </si>
+  <si>
+    <t>Ai chung tình được mãi</t>
+  </si>
+  <si>
+    <t>Cánh hồng phai</t>
+  </si>
+  <si>
+    <t>Chỉ bằng cái gật đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đừng hỏi em </t>
+  </si>
+  <si>
+    <t>Mình yêu nhau đi</t>
+  </si>
+  <si>
+    <t>Yêu một người vô tâm</t>
+  </si>
+  <si>
+    <t>Anh cứ đi đi</t>
+  </si>
+  <si>
+    <t>Bao giờ lấy chồng</t>
+  </si>
+  <si>
+    <t>Body shaming</t>
+  </si>
+  <si>
+    <t>Yêu lại từ đầu</t>
   </si>
 </sst>
 </file>
@@ -486,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +546,7 @@
     <col min="12" max="12" width="6.21875" customWidth="1"/>
     <col min="13" max="13" width="16.5546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.21875" customWidth="1"/>
     <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" customWidth="1"/>
@@ -516,166 +555,207 @@
     <col min="21" max="21" width="2.88671875" customWidth="1"/>
     <col min="22" max="22" width="6.88671875" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="2.88671875" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
+      <c r="X1" t="s">
+        <v>45</v>
       </c>
       <c r="Y1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E470B5-6545-4123-83D4-5C542BBFE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBAC50-CAC0-4CB4-8334-D7DFEFBC8A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBAC50-CAC0-4CB4-8334-D7DFEFBC8A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDA059-BD7B-439B-BBC4-5708C51C9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Music" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Bài này không để đi diễn</t>
   </si>
@@ -102,9 +113,6 @@
     <t>Áo hoa</t>
   </si>
   <si>
-    <t>Như em đã thấy em</t>
-  </si>
-  <si>
     <t>Đừng yêu nữa, em mệt rồi</t>
   </si>
   <si>
@@ -186,9 +194,6 @@
     <t>Cánh hồng phai</t>
   </si>
   <si>
-    <t>Chỉ bằng cái gật đầu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đừng hỏi em </t>
   </si>
   <si>
@@ -208,6 +213,87 @@
   </si>
   <si>
     <t>Yêu lại từ đầu</t>
+  </si>
+  <si>
+    <t>Là bạn không thể yêu</t>
+  </si>
+  <si>
+    <t>Tình đất</t>
+  </si>
+  <si>
+    <t>Khó vẽ nụ cười</t>
+  </si>
+  <si>
+    <t>Hoa bằng lăng</t>
+  </si>
+  <si>
+    <t>Ngã tư đường - Ngân ngân</t>
+  </si>
+  <si>
+    <t>Yêu một người tổn thương</t>
+  </si>
+  <si>
+    <t>Cho anh say</t>
+  </si>
+  <si>
+    <t>Gió</t>
+  </si>
+  <si>
+    <t>Kẻ theo đuổi ánh sáng</t>
+  </si>
+  <si>
+    <t>Thê lương</t>
+  </si>
+  <si>
+    <t>Như anh đã thấy em</t>
+  </si>
+  <si>
+    <t>Chỉ bằng cái gật đầu (Hoàng Lan)</t>
+  </si>
+  <si>
+    <t>Nhất trên đời</t>
+  </si>
+  <si>
+    <t>Thương biệt ly - Chu Thúy Quỳnh</t>
+  </si>
+  <si>
+    <t>Tết này con sẽ về</t>
+  </si>
+  <si>
+    <t>Bài ca tôm cá</t>
+  </si>
+  <si>
+    <t>Yêu em dài lâu - Anh Thư</t>
+  </si>
+  <si>
+    <t>Nỗi nhớ mùa đông - Hoàng Nhật Minh</t>
+  </si>
+  <si>
+    <t>Hẹn ước đến từ hư vô</t>
+  </si>
+  <si>
+    <t>Hoa trinh nữ (H2K)</t>
+  </si>
+  <si>
+    <t>Năm qua đã làm gì | Cara &amp; LyLy</t>
+  </si>
+  <si>
+    <t>Cô gái đến từ hôm qua</t>
+  </si>
+  <si>
+    <t>Cái tết giàu</t>
+  </si>
+  <si>
+    <t>Về nhà là có tết</t>
+  </si>
+  <si>
+    <t>Tết ổn rồi</t>
+  </si>
+  <si>
+    <t>Tết nhà là tết nhất</t>
+  </si>
+  <si>
+    <t>Ở đâu có điểm tựa ở đó có tết</t>
   </si>
 </sst>
 </file>
@@ -525,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,11 +626,11 @@
     <col min="5" max="5" width="10.21875" customWidth="1"/>
     <col min="6" max="6" width="2.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
     <col min="9" max="10" width="2.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.21875" customWidth="1"/>
@@ -561,16 +647,16 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -588,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
         <v>17</v>
@@ -614,11 +700,14 @@
       <c r="V1" t="s">
         <v>11</v>
       </c>
+      <c r="W1" t="s">
+        <v>64</v>
+      </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -637,75 +726,96 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>8</v>
       </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
         <v>13</v>
       </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -713,19 +823,22 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -733,29 +846,90 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/music.xlsx
+++ b/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\OneDrive\Máy tính\music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDA059-BD7B-439B-BBC4-5708C51C9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8B9D6-C966-43F9-A935-ED754D95A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Bài này không để đi diễn</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Ở đâu có điểm tựa ở đó có tết</t>
+  </si>
+  <si>
+    <t>Bất bình thường</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,6 +916,9 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
       <c r="T10" t="s">
         <v>72</v>
       </c>
